--- a/INTLINE/data/134/DEUSTATIS/old/Construction price indices by maintenance of residential buildings quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Construction price indices by maintenance of residential buildings quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13477" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13442" uniqueCount="114">
   <si>
     <t>Construction price indices: Germany, reference month per
 quarter, indices including/excluding turnover tax, maint.
@@ -350,16 +350,13 @@
     <t>2021</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>______________</t>
   </si>
   <si>
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 10:49:37</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:25:15</t>
   </si>
 </sst>
 </file>
@@ -56966,104 +56963,104 @@
       <c r="B705" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="C705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="D705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="E705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="F705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="G705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="H705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="I705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="J705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="K705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="L705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="M705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="N705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="O705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="P705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="Q705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="R705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="S705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="T705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="U705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="V705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="W705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="X705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="Y705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="Z705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="AA705" t="s" s="10">
-        <v>111</v>
+      <c r="C705" t="n" s="10">
+        <v>132.7</v>
+      </c>
+      <c r="D705" t="n" s="10">
+        <v>132.5</v>
+      </c>
+      <c r="E705" t="n" s="10">
+        <v>139.1</v>
+      </c>
+      <c r="F705" t="n" s="10">
+        <v>127.4</v>
+      </c>
+      <c r="G705" t="n" s="10">
+        <v>127.2</v>
+      </c>
+      <c r="H705" t="n" s="10">
+        <v>153.1</v>
+      </c>
+      <c r="I705" t="n" s="10">
+        <v>125.6</v>
+      </c>
+      <c r="J705" t="n" s="10">
+        <v>134.1</v>
+      </c>
+      <c r="K705" t="n" s="10">
+        <v>139.5</v>
+      </c>
+      <c r="L705" t="n" s="10">
+        <v>135.1</v>
+      </c>
+      <c r="M705" t="n" s="10">
+        <v>132.4</v>
+      </c>
+      <c r="N705" t="n" s="10">
+        <v>123.7</v>
+      </c>
+      <c r="O705" t="n" s="10">
+        <v>125.0</v>
+      </c>
+      <c r="P705" t="n" s="10">
+        <v>125.3</v>
+      </c>
+      <c r="Q705" t="n" s="10">
+        <v>130.1</v>
+      </c>
+      <c r="R705" t="n" s="10">
+        <v>129.4</v>
+      </c>
+      <c r="S705" t="n" s="10">
+        <v>134.4</v>
+      </c>
+      <c r="T705" t="n" s="10">
+        <v>123.8</v>
+      </c>
+      <c r="U705" t="n" s="10">
+        <v>124.5</v>
+      </c>
+      <c r="V705" t="n" s="10">
+        <v>128.5</v>
+      </c>
+      <c r="W705" t="n" s="10">
+        <v>128.3</v>
+      </c>
+      <c r="X705" t="n" s="10">
+        <v>139.0</v>
+      </c>
+      <c r="Y705" t="n" s="10">
+        <v>126.2</v>
+      </c>
+      <c r="Z705" t="n" s="10">
+        <v>126.2</v>
+      </c>
+      <c r="AA705" t="n" s="10">
+        <v>121.7</v>
       </c>
       <c r="AB705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="AC705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="AD705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="AE705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="AF705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="AG705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="AH705" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="AI705" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
+      </c>
+      <c r="AC705" t="n" s="10">
+        <v>130.8</v>
+      </c>
+      <c r="AD705" t="n" s="10">
+        <v>133.3</v>
+      </c>
+      <c r="AE705" t="n" s="10">
+        <v>136.2</v>
+      </c>
+      <c r="AF705" t="n" s="10">
+        <v>138.4</v>
+      </c>
+      <c r="AG705" t="n" s="10">
+        <v>141.8</v>
+      </c>
+      <c r="AH705" t="n" s="10">
+        <v>126.4</v>
+      </c>
+      <c r="AI705" t="n" s="10">
+        <v>144.9</v>
       </c>
     </row>
     <row r="706" ht="33.75" customHeight="true">
@@ -57399,119 +57396,119 @@
       <c r="B710" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="C710" t="s" s="10">
-        <v>111</v>
+      <c r="C710" t="n" s="10">
+        <v>126.0</v>
       </c>
       <c r="D710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="E710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="F710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="G710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="H710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="I710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="J710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="K710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="L710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="M710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="N710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="O710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="P710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="Q710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="R710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="S710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="T710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="U710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="V710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="W710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="X710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="Y710" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="Z710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
+      </c>
+      <c r="Z710" t="n" s="10">
+        <v>126.6</v>
       </c>
       <c r="AA710" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="AB710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
+      </c>
+      <c r="AB710" t="n" s="10">
+        <v>124.7</v>
       </c>
       <c r="AC710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="AD710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="AE710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="AF710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="AG710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="AH710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="AI710" t="s" s="10">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="s" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="s" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="s" s="12">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -57717,7 +57714,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 10:49:44&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:25:21&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>